--- a/flows/GCC_fund_flow_data.xlsx
+++ b/flows/GCC_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4045"/>
+  <dimension ref="A1:B4063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40885,6 +40885,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4046">
+      <c r="A4046" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4047">
+      <c r="A4047" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4048">
+      <c r="A4048" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4048" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4049">
+      <c r="A4049" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4050">
+      <c r="A4050" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4050" t="n">
+        <v>-1.72715</v>
+      </c>
+    </row>
+    <row r="4051">
+      <c r="A4051" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4052">
+      <c r="A4052" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4053">
+      <c r="A4053" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4054">
+      <c r="A4054" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4054" t="n">
+        <v>-0.876895</v>
+      </c>
+    </row>
+    <row r="4055">
+      <c r="A4055" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4056">
+      <c r="A4056" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4056" t="n">
+        <v>-1.75239</v>
+      </c>
+    </row>
+    <row r="4057">
+      <c r="A4057" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4058">
+      <c r="A4058" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4059">
+      <c r="A4059" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4060">
+      <c r="A4060" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4061">
+      <c r="A4061" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4062">
+      <c r="A4062" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4063">
+      <c r="A4063" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4063" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
